--- a/biology/Neurosciences/Prix_Brain/Prix_Brain.xlsx
+++ b/biology/Neurosciences/Prix_Brain/Prix_Brain.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le prix Brain, aussi connu sous son nom anglais Brain Prize ou encore prix international de recherche sur le cerveau de la fondation Lundbeck, est une récompense scientifique internationale qui récompense un ou plusieurs scientifiques pour leur contribution à la recherche sur le cerveau. Le prix est fondé en 2011 par la fondation danoise Lundbeck et  consiste en une récompense d'un million d'euros pour des chercheurs européens ou travaillant en collaboration avec des chercheurs européens[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le prix Brain, aussi connu sous son nom anglais Brain Prize ou encore prix international de recherche sur le cerveau de la fondation Lundbeck, est une récompense scientifique internationale qui récompense un ou plusieurs scientifiques pour leur contribution à la recherche sur le cerveau. Le prix est fondé en 2011 par la fondation danoise Lundbeck et  consiste en une récompense d'un million d'euros pour des chercheurs européens ou travaillant en collaboration avec des chercheurs européens.
 </t>
         </is>
       </c>
@@ -511,17 +523,19 @@
           <t>Lauréats</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>2011 : Péter Somogyi, Tamás Freund, György Buzsáki
-2012 : Christine Petit, Karen Steel[2]
+2012 : Christine Petit, Karen Steel
 2013 : Ernst Bamberg, Edward Boyden, Karl Deisseroth, Peter Hegemann, Gero Miesenböck, Georg Nagel
-2014 : Giacomo Rizzolatti, Stanislas Dehaene, Trevor W. Robbins[3]
+2014 : Giacomo Rizzolatti, Stanislas Dehaene, Trevor W. Robbins
 2015 : Winfried Denk, Arthur Konnerth, Karel Svoboda, David W. Tank
-2016 : Timothy Bliss, Graham Collingridge et Richard Morris[4]
-2017 : Wolfram Schultz, Peter Dayan et Ray Dolan[5]
-2018 : Bart De Strooper, Michel Goedert, Christian Haass, John Hardy[6]
-2019 : Élisabeth Tournier-Lasserve, Hugues Chabriat, Marie-Germaine Bousser et Anne Joutel[7]
+2016 : Timothy Bliss, Graham Collingridge et Richard Morris
+2017 : Wolfram Schultz, Peter Dayan et Ray Dolan
+2018 : Bart De Strooper, Michel Goedert, Christian Haass, John Hardy
+2019 : Élisabeth Tournier-Lasserve, Hugues Chabriat, Marie-Germaine Bousser et Anne Joutel
 2020 : Adrian Bird et Huda Zoghbi
 2021 : Lars Edvinsson, Peter Goadsby, Michael A. Moskowitz, Jes Olesen
 2022 : Silvia Arber, Ole Kiehn, Martyn Goulding
